--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.11 - 6.13 DAC SPTA.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.11 - 6.13 DAC SPTA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Desktop\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VZhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="###0;###0"/>
@@ -495,9 +495,9 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +639,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1065,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1280,77 +1286,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3414,7 +3423,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3439,14 +3448,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
       <c r="K3"/>
       <c r="L3"/>
     </row>
@@ -4306,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4328,20 +4337,20 @@
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="111"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="N2" s="111"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="111"/>
+      <c r="N3" s="91"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N4" s="111"/>
+      <c r="N4" s="91"/>
       <c r="P4" t="s">
         <v>62</v>
       </c>
@@ -4355,30 +4364,30 @@
         <f>-H9/I9</f>
         <v>8.8927254866351071E-2</v>
       </c>
-      <c r="N5" s="111"/>
+      <c r="N5" s="91"/>
       <c r="P5" s="42">
         <f>-O9/P9</f>
         <v>8.8927254866350891E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N6" s="111"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="105" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="86" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4414,23 +4423,23 @@
       <c r="K8" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="111"/>
-      <c r="O8" s="106" t="s">
+      <c r="N8" s="91"/>
+      <c r="O8" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="106" t="s">
+      <c r="P8" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="106" t="s">
+      <c r="Q8" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="106" t="s">
+      <c r="R8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="106" t="s">
+      <c r="T8" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="106" t="s">
+      <c r="U8" s="87" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4459,7 +4468,7 @@
         <f>J9+H9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="111"/>
+      <c r="N9" s="91"/>
       <c r="O9" s="19">
         <f>NPV(Discount_rate,E10:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D10:$D$20)*(1+Discount_rate)
@@ -4479,7 +4488,7 @@
         <f>Q9+O9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="107"/>
+      <c r="T9" s="88"/>
       <c r="U9" s="19"/>
       <c r="V9" t="s">
         <v>104</v>
@@ -4526,7 +4535,7 @@
         <f t="shared" ref="K10:K19" si="3">J10+H10</f>
         <v>-561.60486813640421</v>
       </c>
-      <c r="N10" s="111"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="19">
         <f>NPV(Discount_rate,E11:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D11:$D$20)*(1+Discount_rate)
@@ -4546,16 +4555,16 @@
         <f t="shared" ref="R10:R19" si="4">Q10+O10</f>
         <v>-561.60486813640421</v>
       </c>
-      <c r="T10" s="107">
-        <f>(R9+C10-D10-E10)*Investment_rate</f>
+      <c r="T10" s="88">
+        <f t="shared" ref="T10:T19" si="5">(R9+C10-D10-E10)*Investment_rate</f>
         <v>-2.1</v>
       </c>
-      <c r="U10" s="107">
+      <c r="U10" s="88">
         <f>G10+T10-(R10-R9)</f>
         <v>61.104868136404207</v>
       </c>
-      <c r="V10" s="108">
-        <f>U10/C10/(1+Discount_rate)</f>
+      <c r="V10" s="89">
+        <f t="shared" ref="V10:V19" si="6">U10/C10/(1+Discount_rate)</f>
         <v>8.8927254866350905E-2</v>
       </c>
     </row>
@@ -4581,7 +4590,7 @@
         <v>409.46499281599995</v>
       </c>
       <c r="G11" s="20">
-        <f t="shared" ref="G11:G19" si="5">C11-D11-E11-F11</f>
+        <f t="shared" ref="G11:G19" si="7">C11-D11-E11-F11</f>
         <v>102.87098545083359</v>
       </c>
       <c r="H11" s="19">
@@ -4600,7 +4609,7 @@
         <f t="shared" si="3"/>
         <v>-518.61602125956483</v>
       </c>
-      <c r="N11" s="111"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="19">
         <f>NPV(Discount_rate,E12:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D12:$D$20)*(1+Discount_rate)
@@ -4613,29 +4622,29 @@
         <v>4384.5217001562241</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" ref="Q11:Q19" si="6">P11*$P$5</f>
+        <f t="shared" ref="Q11:Q19" si="8">P11*$P$5</f>
         <v>389.90347869683865</v>
       </c>
       <c r="R11" s="19">
-        <f t="shared" si="4"/>
+        <f>Q11+O11</f>
         <v>-518.61602125956642</v>
       </c>
-      <c r="T11" s="107">
-        <f>(R10+C11-D11-E11)*Investment_rate</f>
+      <c r="T11" s="88">
+        <f t="shared" si="5"/>
         <v>-1.4780666960871205</v>
       </c>
-      <c r="U11" s="107">
-        <f t="shared" ref="U11:U19" si="7">G11+T11-(R11-R10)</f>
+      <c r="U11" s="88">
+        <f t="shared" ref="U11:U19" si="9">G11+T11-(R11-R10)</f>
         <v>58.404071877908677</v>
       </c>
-      <c r="V11" s="108">
-        <f>U11/C11/(1+Discount_rate)</f>
+      <c r="V11" s="89">
+        <f t="shared" si="6"/>
         <v>8.8927254866353389E-2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
-        <f t="shared" ref="B12:B19" si="8">1+B11</f>
+        <f t="shared" ref="B12:B19" si="10">1+B11</f>
         <v>3</v>
       </c>
       <c r="C12" s="20">
@@ -4655,7 +4664,7 @@
         <v>394.06159525406042</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>103.05174317770457</v>
       </c>
       <c r="H12" s="19">
@@ -4674,7 +4683,7 @@
         <f t="shared" si="3"/>
         <v>-472.41636560595788</v>
       </c>
-      <c r="N12" s="111"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="19">
         <f>NPV(Discount_rate,E13:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D13:$D$20)*(1+Discount_rate)
@@ -4687,29 +4696,29 @@
         <v>3884.001328249406</v>
       </c>
       <c r="Q12" s="19">
+        <f t="shared" si="8"/>
+        <v>345.3935760184803</v>
+      </c>
+      <c r="R12" s="19">
+        <f>Q12+O12</f>
+        <v>-472.41636560595828</v>
+      </c>
+      <c r="T12" s="88">
+        <f t="shared" si="5"/>
+        <v>-0.64508048483404345</v>
+      </c>
+      <c r="U12" s="88">
+        <f t="shared" si="9"/>
+        <v>56.207007039262379</v>
+      </c>
+      <c r="V12" s="89">
         <f t="shared" si="6"/>
-        <v>345.3935760184803</v>
-      </c>
-      <c r="R12" s="19">
-        <f t="shared" si="4"/>
-        <v>-472.41636560595828</v>
-      </c>
-      <c r="T12" s="107">
-        <f>(R11+C12-D12-E12)*Investment_rate</f>
-        <v>-0.64508048483404345</v>
-      </c>
-      <c r="U12" s="107">
-        <f t="shared" si="7"/>
-        <v>56.207007039262379</v>
-      </c>
-      <c r="V12" s="108">
-        <f>U12/C12/(1+Discount_rate)</f>
         <v>8.892725486634924E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C13" s="20">
@@ -4729,7 +4738,7 @@
         <v>389.62357505291038</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>105.85822508364015</v>
       </c>
       <c r="H13" s="19">
@@ -4748,7 +4757,7 @@
         <f t="shared" si="3"/>
         <v>-421.4401671606355</v>
       </c>
-      <c r="N13" s="111"/>
+      <c r="N13" s="91"/>
       <c r="O13" s="19">
         <f>NPV(Discount_rate,E14:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D14:$D$20)*(1+Discount_rate)
@@ -4761,29 +4770,29 @@
         <v>3375.58371812942</v>
       </c>
       <c r="Q13" s="19">
+        <f t="shared" si="8"/>
+        <v>300.18139362479928</v>
+      </c>
+      <c r="R13" s="19">
+        <f>Q13+O13</f>
+        <v>-421.44016716063629</v>
+      </c>
+      <c r="T13" s="88">
+        <f t="shared" si="5"/>
+        <v>0.69196303591776809</v>
+      </c>
+      <c r="U13" s="88">
+        <f t="shared" si="9"/>
+        <v>55.573989674235932</v>
+      </c>
+      <c r="V13" s="89">
         <f t="shared" si="6"/>
-        <v>300.18139362479928</v>
-      </c>
-      <c r="R13" s="19">
-        <f t="shared" si="4"/>
-        <v>-421.44016716063629</v>
-      </c>
-      <c r="T13" s="107">
-        <f>(R12+C13-D13-E13)*Investment_rate</f>
-        <v>0.69196303591776809</v>
-      </c>
-      <c r="U13" s="107">
-        <f t="shared" si="7"/>
-        <v>55.573989674235932</v>
-      </c>
-      <c r="V13" s="108">
-        <f>U13/C13/(1+Discount_rate)</f>
         <v>8.8927254866351613E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C14" s="20">
@@ -4803,7 +4812,7 @@
         <v>388.36971502891879</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109.56748569511291</v>
       </c>
       <c r="H14" s="19">
@@ -4822,7 +4831,7 @@
         <f t="shared" si="3"/>
         <v>-364.97291570842231</v>
       </c>
-      <c r="N14" s="111"/>
+      <c r="N14" s="91"/>
       <c r="O14" s="19">
         <f>NPV(Discount_rate,E15:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D15:$D$20)*(1+Discount_rate)
@@ -4835,29 +4844,29 @@
         <v>2853.9247114415739</v>
       </c>
       <c r="Q14" s="19">
+        <f t="shared" si="8"/>
+        <v>253.79169018374176</v>
+      </c>
+      <c r="R14" s="19">
+        <f>Q14+O14</f>
+        <v>-364.97291570842282</v>
+      </c>
+      <c r="T14" s="88">
+        <f t="shared" si="5"/>
+        <v>2.2949110069018621</v>
+      </c>
+      <c r="U14" s="88">
+        <f t="shared" si="9"/>
+        <v>55.395145249801288</v>
+      </c>
+      <c r="V14" s="89">
         <f t="shared" si="6"/>
-        <v>253.79169018374176</v>
-      </c>
-      <c r="R14" s="19">
-        <f t="shared" si="4"/>
-        <v>-364.97291570842282</v>
-      </c>
-      <c r="T14" s="107">
-        <f>(R13+C14-D14-E14)*Investment_rate</f>
-        <v>2.2949110069018621</v>
-      </c>
-      <c r="U14" s="107">
-        <f t="shared" si="7"/>
-        <v>55.395145249801288</v>
-      </c>
-      <c r="V14" s="108">
-        <f>U14/C14/(1+Discount_rate)</f>
         <v>8.8927254866350544E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C15" s="20">
@@ -4877,7 +4886,7 @@
         <v>387.12992461598287</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>112.93804268144498</v>
       </c>
       <c r="H15" s="19">
@@ -4896,7 +4905,7 @@
         <f t="shared" si="3"/>
         <v>-303.20032912476893</v>
       </c>
-      <c r="N15" s="111"/>
+      <c r="N15" s="91"/>
       <c r="O15" s="19">
         <f>NPV(Discount_rate,E16:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D16:$D$20)*(1+Discount_rate)
@@ -4909,29 +4918,29 @@
         <v>2318.604499303075</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>206.18713324379246</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="4"/>
         <v>-303.2003291247695</v>
       </c>
-      <c r="T15" s="107">
-        <f>(R14+C15-D15-E15)*Investment_rate</f>
+      <c r="T15" s="88">
+        <f t="shared" si="5"/>
         <v>4.0528515476701514</v>
       </c>
-      <c r="U15" s="107">
-        <f t="shared" si="7"/>
+      <c r="U15" s="88">
+        <f t="shared" si="9"/>
         <v>55.218307645461806</v>
       </c>
-      <c r="V15" s="108">
-        <f>U15/C15/(1+Discount_rate)</f>
+      <c r="V15" s="89">
+        <f t="shared" si="6"/>
         <v>8.8927254866351266E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C16" s="20">
@@ -4951,7 +4960,7 @@
         <v>387.22343327476443</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>116.52783906091946</v>
       </c>
       <c r="H16" s="19">
@@ -4970,7 +4979,7 @@
         <f t="shared" si="3"/>
         <v>-235.88760702798004</v>
       </c>
-      <c r="N16" s="111"/>
+      <c r="N16" s="91"/>
       <c r="O16" s="19">
         <f>NPV(Discount_rate,E17:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D17:$D$20)*(1+Discount_rate)
@@ -4983,29 +4992,29 @@
         <v>1767.0746973671482</v>
       </c>
       <c r="Q16" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>157.14110198064827</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="4"/>
         <v>-235.88760702798049</v>
       </c>
-      <c r="T16" s="107">
-        <f>(R15+C16-D16-E16)*Investment_rate</f>
+      <c r="T16" s="88">
+        <f t="shared" si="5"/>
         <v>6.0165282963274329</v>
       </c>
-      <c r="U16" s="107">
-        <f t="shared" si="7"/>
+      <c r="U16" s="88">
+        <f t="shared" si="9"/>
         <v>55.231645260457896</v>
       </c>
-      <c r="V16" s="108">
-        <f>U16/C16/(1+Discount_rate)</f>
+      <c r="V16" s="89">
+        <f t="shared" si="6"/>
         <v>8.8927254866350752E-2</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C17" s="20">
@@ -5025,7 +5034,7 @@
         <v>387.84764635876911</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>120.04079785061413</v>
       </c>
       <c r="H17" s="19">
@@ -5044,7 +5053,7 @@
         <f t="shared" si="3"/>
         <v>-163.00746400535837</v>
       </c>
-      <c r="N17" s="111"/>
+      <c r="N17" s="91"/>
       <c r="O17" s="19">
         <f>NPV(Discount_rate,E18:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D18:$D$20)*(1+Discount_rate)
@@ -5057,29 +5066,29 @@
         <v>1197.9977933283176</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>106.53465509663326</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="4"/>
         <v>-163.00746400535857</v>
       </c>
-      <c r="T17" s="107">
-        <f>(R16+C17-D17-E17)*Investment_rate</f>
+      <c r="T17" s="88">
+        <f t="shared" si="5"/>
         <v>8.1600251154420818</v>
       </c>
-      <c r="U17" s="107">
-        <f t="shared" si="7"/>
+      <c r="U17" s="88">
+        <f t="shared" si="9"/>
         <v>55.320679943434271</v>
       </c>
-      <c r="V17" s="108">
-        <f>U17/C17/(1+Discount_rate)</f>
+      <c r="V17" s="89">
+        <f t="shared" si="6"/>
         <v>8.8927254866350613E-2</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="C18" s="20">
@@ -5099,7 +5108,7 @@
         <v>389.7812829624134</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>123.81348110950358</v>
       </c>
       <c r="H18" s="19">
@@ -5118,7 +5127,7 @@
         <f t="shared" si="3"/>
         <v>-84.272848248332267</v>
       </c>
-      <c r="N18" s="111"/>
+      <c r="N18" s="91"/>
       <c r="O18" s="19">
         <f>NPV(Discount_rate,E19:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D19:$D$20)*(1+Discount_rate)
@@ -5131,29 +5140,29 @@
         <v>608.74712118817365</v>
       </c>
       <c r="Q18" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54.134210395058112</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="4"/>
         <v>-84.272848248332366</v>
       </c>
-      <c r="T18" s="107">
-        <f>(R17+C18-D18-E18)*Investment_rate</f>
+      <c r="T18" s="88">
+        <f t="shared" si="5"/>
         <v>10.517619001996753</v>
       </c>
-      <c r="U18" s="107">
-        <f t="shared" si="7"/>
+      <c r="U18" s="88">
+        <f t="shared" si="9"/>
         <v>55.596484354474143</v>
       </c>
-      <c r="V18" s="108">
-        <f>U18/C18/(1+Discount_rate)</f>
+      <c r="V18" s="89">
+        <f t="shared" si="6"/>
         <v>8.8927254866350877E-2</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="C19" s="20">
@@ -5173,7 +5182,7 @@
         <v>390.91531221240331</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>127.0211757634176</v>
       </c>
       <c r="H19" s="19">
@@ -5192,7 +5201,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="111"/>
+      <c r="N19" s="91"/>
       <c r="O19" s="19">
         <f>NPV(Discount_rate,E20:$E$20)*(1+Discount_rate)
 +NPV(Discount_rate,D20:$D$20)*(1+Discount_rate)
@@ -5205,58 +5214,58 @@
         <v>0</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="107">
-        <f>(R18+C19-D19-E19)*Investment_rate</f>
+      <c r="T19" s="88">
+        <f t="shared" si="5"/>
         <v>13.009909191824654</v>
       </c>
-      <c r="U19" s="107">
-        <f t="shared" si="7"/>
+      <c r="U19" s="88">
+        <f t="shared" si="9"/>
         <v>55.758236706909884</v>
       </c>
-      <c r="V19" s="108">
-        <f>U19/C19/(1+Discount_rate)</f>
+      <c r="V19" s="89">
+        <f t="shared" si="6"/>
         <v>8.8927254866350933E-2</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N20" s="111"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N21" s="111"/>
+      <c r="N21" s="91"/>
       <c r="P21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="105" t="s">
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="98"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="86" t="s">
         <v>103</v>
       </c>
       <c r="P22" s="42">
         <f>-O24/P24</f>
         <v>0.21203446306409418</v>
       </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
     </row>
     <row r="23" spans="2:22" ht="54" x14ac:dyDescent="0.25">
       <c r="B23" s="41" t="s">
@@ -5292,23 +5301,23 @@
       <c r="M23" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="N23" s="111"/>
-      <c r="O23" s="106" t="s">
+      <c r="N23" s="91"/>
+      <c r="O23" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="P23" s="106" t="s">
+      <c r="P23" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="106" t="s">
+      <c r="Q23" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="R23" s="106" t="s">
+      <c r="R23" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="106" t="s">
+      <c r="T23" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="U23" s="106" t="s">
+      <c r="U23" s="87" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5322,11 +5331,11 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="19">
-        <f t="shared" ref="H24:H34" si="9">(H25+F25)/(1+Discount_rate)-C25+D25 + E25</f>
+        <f t="shared" ref="H24:H34" si="11">(H25+F25)/(1+Discount_rate)-C25+D25 + E25</f>
         <v>-1149.0175779010679</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" ref="I24:I34" si="10">C25+I25/(1+Discount_rate)</f>
+        <f t="shared" ref="I24:I34" si="12">C25+I25/(1+Discount_rate)</f>
         <v>5419.0133117829082</v>
       </c>
       <c r="J24" s="53">
@@ -5341,7 +5350,7 @@
         <f>-D10</f>
         <v>-667.11959999999999</v>
       </c>
-      <c r="N24" s="111"/>
+      <c r="N24" s="91"/>
       <c r="O24" s="19">
         <f>NPV(Discount_rate,E25:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D25:D$35)*(1+Discount_rate)
@@ -5361,7 +5370,7 @@
         <f>Q24+O24</f>
         <v>0</v>
       </c>
-      <c r="T24" s="107"/>
+      <c r="T24" s="88"/>
       <c r="U24" s="19"/>
       <c r="V24" t="s">
         <v>104</v>
@@ -5376,8 +5385,7 @@
         <f>C10</f>
         <v>667.11959999999999</v>
       </c>
-      <c r="D25" s="20">
-        <f>'Cash flows'!D20</f>
+      <c r="D25" s="113">
         <v>0</v>
       </c>
       <c r="E25" s="20">
@@ -5393,11 +5401,11 @@
         <v>168.71960000000001</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-996.8549172380998</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4894.4505231363955</v>
       </c>
       <c r="J25" s="53">
@@ -5405,14 +5413,14 @@
         <v>1037.7921886670006</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" ref="K25:K34" si="11">J25+H25</f>
+        <f t="shared" ref="K25:K34" si="13">J25+H25</f>
         <v>40.937271428900772</v>
       </c>
       <c r="M25" s="65">
         <f>$F$37*I25</f>
         <v>-602.54213956530509</v>
       </c>
-      <c r="N25" s="111"/>
+      <c r="N25" s="91"/>
       <c r="O25" s="19">
         <f>NPV(Discount_rate,E26:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D26:D$35)*(1+Discount_rate)
@@ -5425,23 +5433,23 @@
         <v>4894.4505231363964</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" ref="Q25:Q34" si="12">P25*$P$22</f>
+        <f t="shared" ref="Q25:Q34" si="14">P25*$P$22</f>
         <v>1037.7921886670008</v>
       </c>
       <c r="R25" s="19">
-        <f t="shared" ref="R25:R34" si="13">Q25+O25</f>
+        <f t="shared" ref="R25:R34" si="15">Q25+O25</f>
         <v>40.937271428901795</v>
       </c>
-      <c r="T25" s="107">
-        <f>(R24+C10-D10-E10)*Investment_rate</f>
+      <c r="T25" s="88">
+        <f t="shared" ref="T25:T34" si="16">(R24+C10-D10-E10)*Investment_rate</f>
         <v>-2.1</v>
       </c>
-      <c r="U25" s="107">
+      <c r="U25" s="88">
         <f>G10+T25-(R25-R24)</f>
         <v>-541.43727142890179</v>
       </c>
-      <c r="V25" s="108">
-        <f>U25/C25/(1+Discount_rate)</f>
+      <c r="V25" s="89">
+        <f t="shared" ref="V25:V34" si="17">U25/C25/(1+Discount_rate)</f>
         <v>-0.78796553693590732</v>
       </c>
     </row>
@@ -5451,46 +5459,46 @@
         <v>2</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" ref="C26:C34" si="14">C11</f>
+        <f t="shared" ref="C26:D34" si="18">C11</f>
         <v>637.63333851870391</v>
       </c>
       <c r="D26" s="20">
-        <f>'Cash flows'!D21</f>
+        <f>D11</f>
         <v>0</v>
       </c>
       <c r="E26" s="20">
-        <f t="shared" ref="E26:F26" si="15">E11</f>
+        <f t="shared" ref="E26:F26" si="19">E11</f>
         <v>125.29736025187039</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>409.46499281599995</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" ref="G26:G34" si="16">C26-D26-E26-F26</f>
+        <f t="shared" ref="G26:G34" si="20">C26-D26-E26-F26</f>
         <v>102.87098545083359</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-908.51949995640427</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4384.5217001562232</v>
       </c>
       <c r="J26" s="53">
-        <f t="shared" ref="J26:J34" si="17">($J$24/$I$24)*I26</f>
+        <f t="shared" ref="J26:J34" si="21">($J$24/$I$24)*I26</f>
         <v>929.66970448549421</v>
       </c>
       <c r="K26" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21.150204529089933</v>
       </c>
       <c r="M26" s="65">
-        <f t="shared" ref="M26:M34" si="18">$F$37*I26</f>
+        <f t="shared" ref="M26:M34" si="22">$F$37*I26</f>
         <v>-539.76622578865488</v>
       </c>
-      <c r="N26" s="111"/>
+      <c r="N26" s="91"/>
       <c r="O26" s="19">
         <f>NPV(Discount_rate,E27:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D27:D$35)*(1+Discount_rate)
@@ -5503,57 +5511,57 @@
         <v>4384.5217001562241</v>
       </c>
       <c r="Q26" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>929.66970448549432</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.150204529089251</v>
       </c>
-      <c r="T26" s="107">
-        <f>(R25+C11-D11-E11)*Investment_rate</f>
+      <c r="T26" s="88">
+        <f t="shared" si="16"/>
         <v>16.59819749087206</v>
       </c>
-      <c r="U26" s="107">
-        <f t="shared" ref="U26:U34" si="19">G11+T26-(R26-R25)</f>
+      <c r="U26" s="88">
+        <f t="shared" ref="U26:U34" si="23">G11+T26-(R26-R25)</f>
         <v>139.25624984151818</v>
       </c>
-      <c r="V26" s="108">
-        <f>U26/C26/(1+Discount_rate)</f>
+      <c r="V26" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409665</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
-        <f t="shared" ref="B27:B34" si="20">1+B26</f>
+        <f t="shared" ref="B27:B34" si="24">1+B26</f>
         <v>3</v>
       </c>
       <c r="C27" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>613.64662418592604</v>
       </c>
       <c r="D27" s="20">
-        <f>'Cash flows'!D22</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E27" s="20">
-        <f t="shared" ref="E27:F27" si="21">E12</f>
+        <f t="shared" ref="E27:F27" si="25">E12</f>
         <v>116.53328575416107</v>
       </c>
       <c r="F27" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>394.06159525406042</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>103.05174317770457</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-817.80994162443892</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3884.001328249406</v>
       </c>
       <c r="J27" s="53">
@@ -5561,14 +5569,14 @@
         <v>823.54213617559151</v>
       </c>
       <c r="K27" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.7321945511525882</v>
       </c>
       <c r="M27" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-478.14856015711052</v>
       </c>
-      <c r="N27" s="111"/>
+      <c r="N27" s="91"/>
       <c r="O27" s="19">
         <f>NPV(Discount_rate,E28:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D28:D$35)*(1+Discount_rate)
@@ -5581,57 +5589,57 @@
         <v>3884.001328249406</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>823.54213617559139</v>
       </c>
       <c r="R27" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.7321945511528156</v>
       </c>
-      <c r="T27" s="107">
-        <f>(R26+C12-D12-E12)*Investment_rate</f>
+      <c r="T27" s="88">
+        <f t="shared" si="16"/>
         <v>15.547906288825626</v>
       </c>
-      <c r="U27" s="107">
-        <f t="shared" si="19"/>
+      <c r="U27" s="88">
+        <f t="shared" si="23"/>
         <v>134.01765944446663</v>
       </c>
-      <c r="V27" s="108">
-        <f>U27/C27/(1+Discount_rate)</f>
+      <c r="V27" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409274</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" si="18"/>
+        <v>606.73558249268808</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" ref="E28:F28" si="26">E13</f>
+        <v>111.25378235613753</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="26"/>
+        <v>389.62357505291038</v>
+      </c>
+      <c r="G28" s="20">
         <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="C28" s="20">
-        <f t="shared" si="14"/>
-        <v>606.73558249268808</v>
-      </c>
-      <c r="D28" s="20">
-        <f>'Cash flows'!D23</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" ref="E28:F28" si="22">E13</f>
-        <v>111.25378235613753</v>
-      </c>
-      <c r="F28" s="20">
-        <f t="shared" si="22"/>
-        <v>389.62357505291038</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="16"/>
         <v>105.85822508364015</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-721.62156078543535</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3375.5837181294196</v>
       </c>
       <c r="J28" s="53">
@@ -5639,14 +5647,14 @@
         <v>715.74008120147016</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5.8814795839651879</v>
       </c>
       <c r="M28" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-415.55868757667037</v>
       </c>
-      <c r="N28" s="111"/>
+      <c r="N28" s="91"/>
       <c r="O28" s="19">
         <f>NPV(Discount_rate,E29:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D29:D$35)*(1+Discount_rate)
@@ -5659,72 +5667,72 @@
         <v>3375.58371812942</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>715.74008120147016</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-5.8814795839654153</v>
       </c>
-      <c r="T28" s="107">
-        <f>(R27+C13-D13-E13)*Investment_rate</f>
+      <c r="T28" s="88">
+        <f t="shared" si="16"/>
         <v>15.036419840631099</v>
       </c>
-      <c r="U28" s="107">
-        <f t="shared" si="19"/>
+      <c r="U28" s="88">
+        <f t="shared" si="23"/>
         <v>132.50831905938946</v>
       </c>
-      <c r="V28" s="108">
-        <f>U28/C28/(1+Discount_rate)</f>
+      <c r="V28" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409482</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" si="18"/>
+        <v>604.78302740944525</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" ref="E29:F29" si="27">E14</f>
+        <v>106.84582668541356</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="27"/>
+        <v>388.36971502891879</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="C29" s="20">
-        <f t="shared" si="14"/>
-        <v>604.78302740944525</v>
-      </c>
-      <c r="D29" s="20">
-        <f>'Cash flows'!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
-        <f t="shared" ref="E29:F29" si="23">E14</f>
-        <v>106.84582668541356</v>
-      </c>
-      <c r="F29" s="20">
-        <f t="shared" si="23"/>
-        <v>388.36971502891879</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="16"/>
         <v>109.56748569511291</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-618.76460589216458</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2853.9247114415734</v>
       </c>
       <c r="J29" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>605.13039381586407</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-13.634212076300514</v>
       </c>
       <c r="M29" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-351.33870363212179</v>
       </c>
-      <c r="N29" s="111"/>
+      <c r="N29" s="91"/>
       <c r="O29" s="19">
         <f>NPV(Discount_rate,E30:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D30:D$35)*(1+Discount_rate)
@@ -5737,72 +5745,72 @@
         <v>2853.9247114415739</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>605.13039381586407</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-13.634212076300514</v>
       </c>
-      <c r="T29" s="107">
-        <f>(R28+C14-D14-E14)*Investment_rate</f>
+      <c r="T29" s="88">
+        <f t="shared" si="16"/>
         <v>14.761671634201988</v>
       </c>
-      <c r="U29" s="107">
-        <f t="shared" si="19"/>
+      <c r="U29" s="88">
+        <f t="shared" si="23"/>
         <v>132.08188982165001</v>
       </c>
-      <c r="V29" s="108">
-        <f>U29/C29/(1+Discount_rate)</f>
+      <c r="V29" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409376</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="20">
+        <f t="shared" si="18"/>
+        <v>602.8523820211127</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30:F30" si="28">E15</f>
+        <v>102.78441472368486</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="28"/>
+        <v>387.12992461598287</v>
+      </c>
+      <c r="G30" s="20">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="C30" s="20">
-        <f t="shared" si="14"/>
-        <v>602.8523820211127</v>
-      </c>
-      <c r="D30" s="20">
-        <f>'Cash flows'!D25</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" ref="E30:F30" si="24">E15</f>
-        <v>102.78441472368486</v>
-      </c>
-      <c r="F30" s="20">
-        <f t="shared" si="24"/>
-        <v>387.12992461598287</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" si="16"/>
         <v>112.93804268144498</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-509.38746236856173</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2318.6044993030746</v>
       </c>
       <c r="J30" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>491.62406006772039</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-17.763402300841335</v>
       </c>
       <c r="M30" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-285.43692682392759</v>
       </c>
-      <c r="N30" s="111"/>
+      <c r="N30" s="91"/>
       <c r="O30" s="19">
         <f>NPV(Discount_rate,E31:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D31:D$35)*(1+Discount_rate)
@@ -5815,72 +5823,72 @@
         <v>2318.604499303075</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>491.62406006772045</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-17.763402300841506</v>
       </c>
-      <c r="T30" s="107">
-        <f>(R29+C15-D15-E15)*Investment_rate</f>
+      <c r="T30" s="88">
+        <f t="shared" si="16"/>
         <v>14.593012656633819</v>
       </c>
-      <c r="U30" s="107">
-        <f t="shared" si="19"/>
+      <c r="U30" s="88">
+        <f t="shared" si="23"/>
         <v>131.66024556261979</v>
       </c>
-      <c r="V30" s="108">
-        <f>U30/C30/(1+Discount_rate)</f>
+      <c r="V30" s="89">
+        <f t="shared" si="17"/>
         <v>0.2120344630640946</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="20">
+        <f t="shared" si="18"/>
+        <v>602.99799700487301</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" ref="E31:F31" si="29">E16</f>
+        <v>99.246724669189092</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="29"/>
+        <v>387.22343327476443</v>
+      </c>
+      <c r="G31" s="20">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="C31" s="20">
-        <f t="shared" si="14"/>
-        <v>602.99799700487301</v>
-      </c>
-      <c r="D31" s="20">
-        <f>'Cash flows'!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" ref="E31:F31" si="25">E16</f>
-        <v>99.246724669189092</v>
-      </c>
-      <c r="F31" s="20">
-        <f t="shared" si="25"/>
-        <v>387.22343327476443</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="16"/>
         <v>116.52783906091946</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-393.0287090086286</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1767.074697367148</v>
       </c>
       <c r="J31" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>374.68073465038998</v>
       </c>
       <c r="K31" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-18.347974358238616</v>
       </c>
       <c r="M31" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-217.53963266974145</v>
       </c>
-      <c r="N31" s="111"/>
+      <c r="N31" s="91"/>
       <c r="O31" s="19">
         <f>NPV(Discount_rate,E32:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D32:D$35)*(1+Discount_rate)
@@ -5893,72 +5901,72 @@
         <v>1767.0746973671482</v>
       </c>
       <c r="Q31" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>374.68073465038998</v>
       </c>
       <c r="R31" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-18.347974358238787</v>
       </c>
-      <c r="T31" s="107">
-        <f>(R30+C16-D16-E16)*Investment_rate</f>
+      <c r="T31" s="88">
+        <f t="shared" si="16"/>
         <v>14.579636101045269</v>
       </c>
-      <c r="U31" s="107">
-        <f t="shared" si="19"/>
+      <c r="U31" s="88">
+        <f t="shared" si="23"/>
         <v>131.69204721936202</v>
       </c>
-      <c r="V31" s="108">
-        <f>U31/C31/(1+Discount_rate)</f>
+      <c r="V31" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409407</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="20">
+        <f t="shared" si="18"/>
+        <v>603.97004365033501</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="20">
+        <f t="shared" ref="E32:F32" si="30">E17</f>
+        <v>96.081599440951791</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="30"/>
+        <v>387.84764635876911</v>
+      </c>
+      <c r="G32" s="20">
         <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="C32" s="20">
-        <f t="shared" si="14"/>
-        <v>603.97004365033501</v>
-      </c>
-      <c r="D32" s="20">
-        <f>'Cash flows'!D27</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" ref="E32:F32" si="26">E17</f>
-        <v>96.081599440951791</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="26"/>
-        <v>387.84764635876911</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="16"/>
         <v>120.04079785061413</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-269.54211910199183</v>
       </c>
       <c r="I32" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1197.9977933283176</v>
       </c>
       <c r="J32" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>254.01681886033953</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-15.525300241652303</v>
       </c>
       <c r="M32" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-147.48216376370604</v>
       </c>
-      <c r="N32" s="111"/>
+      <c r="N32" s="91"/>
       <c r="O32" s="19">
         <f>NPV(Discount_rate,E33:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D33:D$35)*(1+Discount_rate)
@@ -5971,72 +5979,72 @@
         <v>1197.9977933283176</v>
       </c>
       <c r="Q32" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>254.0168188603395</v>
       </c>
       <c r="R32" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-15.525300241652332</v>
       </c>
-      <c r="T32" s="107">
-        <f>(R31+C17-D17-E17)*Investment_rate</f>
+      <c r="T32" s="88">
+        <f t="shared" si="16"/>
         <v>14.686214095534334</v>
       </c>
-      <c r="U32" s="107">
-        <f t="shared" si="19"/>
+      <c r="U32" s="88">
+        <f t="shared" si="23"/>
         <v>131.904337829562</v>
       </c>
-      <c r="V32" s="108">
-        <f>U32/C32/(1+Discount_rate)</f>
+      <c r="V32" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409385</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="20">
+        <f t="shared" si="18"/>
+        <v>606.98117081552766</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
+        <f t="shared" ref="E33:F33" si="31">E18</f>
+        <v>93.38640674361065</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="31"/>
+        <v>389.7812829624134</v>
+      </c>
+      <c r="G33" s="20">
         <f t="shared" si="20"/>
-        <v>9</v>
-      </c>
-      <c r="C33" s="20">
-        <f t="shared" si="14"/>
-        <v>606.98117081552766</v>
-      </c>
-      <c r="D33" s="20">
-        <f>'Cash flows'!D28</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <f t="shared" ref="E33:F33" si="27">E18</f>
-        <v>93.38640674361065</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="27"/>
-        <v>389.7812829624134</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="16"/>
         <v>123.81348110950358</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-138.40705864339049</v>
       </c>
       <c r="I33" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>608.74712118817365</v>
       </c>
       <c r="J33" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>129.07536898294748</v>
       </c>
       <c r="K33" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-9.3316896604430042</v>
       </c>
       <c r="M33" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-74.941158587889262</v>
       </c>
-      <c r="N33" s="111"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="19">
         <f>NPV(Discount_rate,E34:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D34:D$35)*(1+Discount_rate)
@@ -6049,72 +6057,72 @@
         <v>608.74712118817365</v>
       </c>
       <c r="Q33" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>129.07536898294748</v>
       </c>
       <c r="R33" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-9.3316896604430042</v>
       </c>
-      <c r="T33" s="107">
-        <f>(R32+C18-D18-E18)*Investment_rate</f>
+      <c r="T33" s="88">
+        <f t="shared" si="16"/>
         <v>14.94208391490794</v>
       </c>
-      <c r="U33" s="107">
-        <f t="shared" si="19"/>
+      <c r="U33" s="88">
+        <f t="shared" si="23"/>
         <v>132.56195444320218</v>
       </c>
-      <c r="V33" s="108">
-        <f>U33/C33/(1+Discount_rate)</f>
+      <c r="V33" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409413</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="C34" s="20">
+        <f t="shared" si="18"/>
+        <v>608.74712118817365</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" ref="E34:F34" si="32">E19</f>
+        <v>90.810633212352784</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="32"/>
+        <v>390.91531221240331</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="C34" s="20">
-        <f t="shared" si="14"/>
-        <v>608.74712118817365</v>
-      </c>
-      <c r="D34" s="20">
-        <f>'Cash flows'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" ref="E34:F34" si="28">E19</f>
-        <v>90.810633212352784</v>
-      </c>
-      <c r="F34" s="20">
-        <f t="shared" si="28"/>
-        <v>390.91531221240331</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="16"/>
         <v>127.0211757634176</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="53">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="I34" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="M34" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N34" s="111"/>
+      <c r="N34" s="91"/>
       <c r="O34" s="19">
         <f>NPV(Discount_rate,E35:E$35)*(1+Discount_rate)
 +NPV(Discount_rate,D35:D$35)*(1+Discount_rate)
@@ -6127,28 +6135,28 @@
         <v>0</v>
       </c>
       <c r="Q34" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R34" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T34" s="107">
-        <f>(R33+C19-D19-E19)*Investment_rate</f>
+      <c r="T34" s="88">
+        <f t="shared" si="16"/>
         <v>15.258143949461335</v>
       </c>
-      <c r="U34" s="107">
-        <f t="shared" si="19"/>
+      <c r="U34" s="88">
+        <f t="shared" si="23"/>
         <v>132.94763005243593</v>
       </c>
-      <c r="V34" s="108">
-        <f>U34/C34/(1+Discount_rate)</f>
+      <c r="V34" s="89">
+        <f t="shared" si="17"/>
         <v>0.21203446306409424</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N35" s="111"/>
+      <c r="N35" s="91"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -6158,26 +6166,26 @@
         <f>J24/I24</f>
         <v>0.21203446306409421</v>
       </c>
-      <c r="N36" s="111"/>
+      <c r="N36" s="91"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="110">
+      <c r="F37" s="90">
         <f>-D10/I9</f>
         <v>-0.12310720819774314</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="N37" s="111"/>
+      <c r="N37" s="91"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>74</v>
       </c>
-      <c r="N38" s="111"/>
+      <c r="N38" s="91"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -6187,13 +6195,13 @@
         <f>F36+F37</f>
         <v>8.8927254866351071E-2</v>
       </c>
-      <c r="N39" s="111"/>
+      <c r="N39" s="91"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N40" s="111"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N41" s="111"/>
+      <c r="N41" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6210,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6260,13 +6268,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
     </row>
@@ -6567,39 +6575,39 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="99" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103" t="s">
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="111" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="60" t="s">
         <v>79</v>
       </c>
@@ -6609,7 +6617,7 @@
       <c r="F22" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="103"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6938,24 +6946,24 @@
       <c r="C37" s="73"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97" t="s">
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
     </row>
     <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="78" t="s">
         <v>38</v>
       </c>
